--- a/va_facility_data_2025-02-20/Pembroke Pines VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pembroke%20Pines%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pembroke Pines VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pembroke%20Pines%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R864eb8beed804a06ac0036fc52034ec4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R60d505f6f98944e99ab3d7217f2c9e06"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3b9450dd652349b6b9614958e55d7c55"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfc2836b32d834649849a47da9589a925"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re252360f57d145cfb6bb12cbdd7356c2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re9d6b2cac89c41b5a5cfc99e61b4f974"/>
   </x:sheets>
 </x:workbook>
 </file>
